--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.66319999999999</v>
+        <v>-21.48709999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.55700000000002</v>
+        <v>-22.54160000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.88849999999998</v>
+        <v>-19.36759999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-12.242</v>
+        <v>-12.3717</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.24690000000001</v>
+        <v>-22.39530000000002</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.3724</v>
+        <v>-11.7229</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.6345</v>
+        <v>-10.5805</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.84049999999999</v>
+        <v>-14.75869999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.59989999999999</v>
+        <v>-21.53659999999998</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.25179999999999</v>
+        <v>-19.13399999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.851</v>
+        <v>-12.0704</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.87709999999999</v>
+        <v>-19.94059999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.0379</v>
+        <v>-11.849</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.80020000000001</v>
+        <v>-12.52770000000001</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.96720000000001</v>
+        <v>-12.29710000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.8519</v>
+        <v>-21.7949</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.46029999999999</v>
+        <v>-21.53329999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.45690000000001</v>
+        <v>-11.44650000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.48609999999999</v>
+        <v>-21.5461</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.16969999999999</v>
+        <v>-21.19979999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.01010000000002</v>
+        <v>-11.16280000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.2238</v>
+        <v>-20.20889999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.05539999999999</v>
+        <v>-11.9234</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.49369999999999</v>
+        <v>-13.47959999999998</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.8732</v>
+        <v>-13.9323</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.7429</v>
+        <v>-14.09609999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.07870000000001</v>
+        <v>-21.9216</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.67879999999999</v>
+        <v>-12.86469999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.26449999999999</v>
+        <v>-14.16459999999999</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.59299999999999</v>
+        <v>-21.61559999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.0805</v>
+        <v>-10.9406</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.27</v>
+        <v>-22.30640000000001</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.0706</v>
+        <v>-22.0308</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.30269999999999</v>
+        <v>-12.58549999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.2581</v>
+        <v>-22.30390000000002</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.28390000000002</v>
+        <v>-22.30540000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.75139999999998</v>
+        <v>-13.26009999999999</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.53629999999998</v>
+        <v>-21.61139999999999</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.13920000000001</v>
+        <v>-11.04570000000001</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.4369</v>
+        <v>-11.1234</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.4952</v>
+        <v>-20.68099999999999</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.96899999999999</v>
+        <v>-21.82919999999999</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.72329999999999</v>
+        <v>-19.98489999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.73420000000001</v>
+        <v>-11.7492</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.78619999999999</v>
+        <v>-12.55609999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.6429</v>
+        <v>-13.89879999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1992,13 +1992,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.6952</v>
+        <v>-21.84329999999998</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.41130000000001</v>
+        <v>-11.35980000000001</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.07330000000001</v>
+        <v>-11.12500000000001</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.26129999999999</v>
+        <v>-22.2711</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
